--- a/ava/ava.xlsx
+++ b/ava/ava.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\test\streamlit\scada-webapp-main\scada-webapp-main\Ava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\scada\ava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{02AF704D-8796-47D3-A8CC-29222FBE14FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3FAEC-7193-4C8B-9D01-7132721D591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="8490" windowWidth="24375" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -991,7 +993,7 @@
   <dimension ref="A1:AA995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4421,7 +4423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4563,7 +4565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4634,7 +4636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4847,7 +4849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4989,7 +4991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5131,7 +5133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5415,7 +5417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5486,7 +5488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5628,7 +5630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5983,7 +5985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6196,7 +6198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6409,7 +6411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6480,7 +6482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6551,7 +6553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6693,7 +6695,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6764,7 +6766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6977,7 +6979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7048,7 +7050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7332,7 +7334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7545,7 +7547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7592,3615 +7594,3616 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
     </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
     </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
     </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
     </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
     </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
     </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
     </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
     </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
     </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
     </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
     </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
     </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
     </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
     </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
     </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
     </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
     </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
     </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
     </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
     </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
     </row>
-    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
     </row>
-    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
     </row>
-    <row r="564" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
     </row>
-    <row r="565" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
     </row>
-    <row r="566" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
     </row>
-    <row r="567" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
     </row>
-    <row r="568" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
     </row>
-    <row r="569" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
     </row>
-    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
     </row>
-    <row r="571" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
     </row>
-    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
     </row>
-    <row r="573" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
     </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
     </row>
-    <row r="585" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
     </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
     </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
     </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
     </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
     </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
     </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
     </row>
-    <row r="597" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
     </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
     </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
     </row>
-    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
     </row>
-    <row r="601" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
     </row>
-    <row r="602" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
     </row>
-    <row r="603" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
     </row>
-    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
     </row>
-    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
     </row>
-    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
     </row>
-    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
     </row>
-    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
     </row>
-    <row r="609" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
     </row>
-    <row r="610" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
     </row>
-    <row r="611" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
     </row>
-    <row r="612" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
     </row>
-    <row r="613" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
     </row>
-    <row r="614" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
     </row>
-    <row r="615" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
     </row>
-    <row r="616" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
     </row>
-    <row r="617" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
     </row>
-    <row r="618" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
     </row>
-    <row r="619" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
     </row>
-    <row r="620" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
     </row>
-    <row r="621" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
     </row>
-    <row r="622" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
     </row>
-    <row r="623" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
     </row>
-    <row r="624" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
     </row>
-    <row r="625" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
     </row>
-    <row r="626" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
     </row>
-    <row r="627" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
     </row>
-    <row r="628" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
     </row>
-    <row r="629" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
     </row>
-    <row r="630" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
     </row>
-    <row r="631" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
     </row>
-    <row r="632" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
     </row>
-    <row r="633" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
     </row>
-    <row r="634" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
     </row>
-    <row r="635" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
     </row>
-    <row r="636" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
     </row>
-    <row r="637" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
     </row>
-    <row r="638" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
     </row>
-    <row r="639" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
     </row>
-    <row r="640" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
     </row>
-    <row r="641" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
     </row>
-    <row r="642" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
     </row>
-    <row r="643" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
     </row>
-    <row r="644" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
     </row>
-    <row r="645" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
     </row>
-    <row r="646" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
     </row>
-    <row r="647" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
     </row>
-    <row r="648" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
     </row>
-    <row r="649" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
     </row>
-    <row r="650" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
     </row>
-    <row r="651" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
     </row>
-    <row r="652" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
     </row>
-    <row r="653" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
     </row>
-    <row r="654" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
     </row>
-    <row r="655" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
     </row>
-    <row r="656" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
     </row>
-    <row r="657" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
     </row>
-    <row r="658" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
     </row>
-    <row r="659" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
     </row>
-    <row r="660" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
     </row>
-    <row r="661" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
     </row>
-    <row r="662" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
     </row>
-    <row r="663" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
     </row>
-    <row r="664" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
     </row>
-    <row r="665" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
     </row>
-    <row r="666" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
     </row>
-    <row r="667" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
     </row>
-    <row r="668" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
     </row>
-    <row r="669" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
     </row>
-    <row r="670" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
     </row>
-    <row r="671" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
     </row>
-    <row r="672" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
     </row>
-    <row r="673" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
     </row>
-    <row r="674" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
     </row>
-    <row r="675" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
     </row>
-    <row r="676" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
     </row>
-    <row r="677" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
     </row>
-    <row r="678" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
     </row>
-    <row r="679" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
     </row>
-    <row r="680" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
     </row>
-    <row r="681" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
     </row>
-    <row r="682" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
     </row>
-    <row r="683" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
     </row>
-    <row r="684" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
     </row>
-    <row r="685" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
     </row>
-    <row r="686" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
     </row>
-    <row r="687" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
     </row>
-    <row r="688" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
     </row>
-    <row r="689" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
     </row>
-    <row r="690" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
     </row>
-    <row r="691" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
     </row>
-    <row r="692" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
     </row>
-    <row r="693" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
     </row>
-    <row r="694" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
     </row>
-    <row r="695" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
     </row>
-    <row r="696" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
     </row>
-    <row r="697" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
     </row>
-    <row r="698" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
     </row>
-    <row r="699" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
     </row>
-    <row r="700" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
     </row>
-    <row r="701" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
     </row>
-    <row r="702" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
     </row>
-    <row r="703" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
     </row>
-    <row r="704" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
     </row>
-    <row r="705" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
     </row>
-    <row r="706" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
     </row>
-    <row r="707" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
     </row>
-    <row r="708" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
     </row>
-    <row r="709" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
     </row>
-    <row r="710" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
     </row>
-    <row r="711" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
     </row>
-    <row r="712" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
     </row>
-    <row r="713" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
     </row>
-    <row r="714" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
     </row>
-    <row r="715" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
     </row>
-    <row r="716" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
     </row>
-    <row r="717" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
     </row>
-    <row r="718" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
     </row>
-    <row r="719" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
     </row>
-    <row r="720" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
     </row>
-    <row r="721" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
     </row>
-    <row r="722" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
     </row>
-    <row r="723" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
     </row>
-    <row r="724" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
     </row>
-    <row r="725" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
     </row>
-    <row r="726" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
     </row>
-    <row r="727" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
     </row>
-    <row r="728" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
     </row>
-    <row r="729" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
     </row>
-    <row r="730" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
     </row>
-    <row r="731" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
     </row>
-    <row r="732" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
     </row>
-    <row r="733" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
     </row>
-    <row r="734" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
     </row>
-    <row r="735" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
     </row>
-    <row r="736" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
     </row>
-    <row r="737" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
     </row>
-    <row r="738" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
     </row>
-    <row r="739" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
     </row>
-    <row r="740" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
     </row>
-    <row r="741" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
     </row>
-    <row r="742" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
     </row>
-    <row r="743" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
     </row>
-    <row r="744" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
     </row>
-    <row r="745" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
     </row>
-    <row r="746" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
     </row>
-    <row r="747" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
     </row>
-    <row r="748" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
     </row>
-    <row r="749" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
     </row>
-    <row r="750" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
     </row>
-    <row r="751" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
     </row>
-    <row r="752" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
     </row>
-    <row r="753" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
     </row>
-    <row r="754" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
     </row>
-    <row r="755" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
     </row>
-    <row r="756" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
     </row>
-    <row r="757" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
     </row>
-    <row r="758" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
     </row>
-    <row r="759" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
     </row>
-    <row r="760" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
     </row>
-    <row r="761" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
     </row>
-    <row r="762" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
     </row>
-    <row r="763" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
     </row>
-    <row r="764" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
     </row>
-    <row r="765" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
     </row>
-    <row r="766" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
     </row>
-    <row r="767" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
     </row>
-    <row r="768" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
     </row>
-    <row r="769" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
     </row>
-    <row r="770" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
     </row>
-    <row r="771" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
     </row>
-    <row r="772" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
     </row>
-    <row r="773" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
     </row>
-    <row r="774" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
     </row>
-    <row r="775" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
     </row>
-    <row r="776" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
     </row>
-    <row r="777" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
     </row>
-    <row r="778" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
     </row>
-    <row r="779" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
     </row>
-    <row r="780" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
     </row>
-    <row r="781" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
     </row>
-    <row r="782" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
     </row>
-    <row r="783" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
     </row>
-    <row r="784" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
     </row>
-    <row r="785" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
     </row>
-    <row r="786" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
     </row>
-    <row r="787" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
     </row>
-    <row r="788" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
     </row>
-    <row r="789" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
     </row>
-    <row r="790" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
     </row>
-    <row r="791" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
     </row>
-    <row r="792" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
     </row>
-    <row r="793" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
     </row>
-    <row r="794" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
     </row>
-    <row r="795" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
     </row>
-    <row r="796" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
     </row>
-    <row r="797" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
     </row>
-    <row r="798" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
     </row>
-    <row r="799" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
     </row>
-    <row r="800" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
     </row>
-    <row r="801" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
     </row>
-    <row r="802" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
     </row>
-    <row r="803" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
     </row>
-    <row r="804" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
     </row>
-    <row r="805" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
     </row>
-    <row r="806" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
     </row>
-    <row r="807" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
     </row>
-    <row r="808" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
     </row>
-    <row r="809" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
     </row>
-    <row r="810" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
     </row>
-    <row r="811" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
     </row>
-    <row r="812" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
     </row>
-    <row r="813" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
     </row>
-    <row r="814" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
     </row>
-    <row r="815" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
     </row>
-    <row r="816" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
     </row>
-    <row r="817" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
     </row>
-    <row r="818" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
     </row>
-    <row r="819" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
     </row>
-    <row r="820" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
     </row>
-    <row r="821" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
     </row>
-    <row r="822" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
     </row>
-    <row r="823" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
     </row>
-    <row r="824" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
     </row>
-    <row r="825" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
     </row>
-    <row r="826" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
     </row>
-    <row r="827" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
     </row>
-    <row r="828" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
     </row>
-    <row r="829" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
     </row>
-    <row r="830" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
     </row>
-    <row r="831" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
     </row>
-    <row r="832" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
     </row>
-    <row r="833" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
     </row>
-    <row r="834" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
     </row>
-    <row r="835" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
     </row>
-    <row r="836" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
     </row>
-    <row r="837" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
     </row>
-    <row r="838" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
     </row>
-    <row r="839" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
     </row>
-    <row r="840" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
     </row>
-    <row r="841" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
     </row>
-    <row r="842" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
     </row>
-    <row r="843" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
     </row>
-    <row r="844" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
     </row>
-    <row r="845" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
     </row>
-    <row r="846" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
     </row>
-    <row r="847" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
     </row>
-    <row r="848" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
     </row>
-    <row r="849" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
     </row>
-    <row r="850" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
     </row>
-    <row r="851" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
     </row>
-    <row r="852" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
     </row>
-    <row r="853" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
     </row>
-    <row r="854" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
     </row>
-    <row r="855" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
     </row>
-    <row r="856" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
     </row>
-    <row r="857" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
     </row>
-    <row r="858" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
     </row>
-    <row r="859" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
     </row>
-    <row r="860" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
     </row>
-    <row r="861" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
     </row>
-    <row r="862" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
     </row>
-    <row r="863" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
     </row>
-    <row r="864" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
     </row>
-    <row r="865" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
     </row>
-    <row r="866" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
     </row>
-    <row r="867" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
     </row>
-    <row r="868" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
     </row>
-    <row r="869" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
     </row>
-    <row r="870" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
     </row>
-    <row r="871" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
     </row>
-    <row r="872" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
     </row>
-    <row r="873" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
     </row>
-    <row r="874" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
     </row>
-    <row r="875" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
     </row>
-    <row r="876" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
     </row>
-    <row r="877" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
     </row>
-    <row r="878" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
     </row>
-    <row r="879" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
     </row>
-    <row r="880" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
     </row>
-    <row r="881" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
     </row>
-    <row r="882" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
     </row>
-    <row r="883" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
     </row>
-    <row r="884" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
     </row>
-    <row r="885" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
     </row>
-    <row r="886" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
     </row>
-    <row r="887" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
     </row>
-    <row r="888" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
     </row>
-    <row r="889" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
     </row>
-    <row r="890" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
     </row>
-    <row r="891" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
     </row>
-    <row r="892" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
     </row>
-    <row r="893" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
     </row>
-    <row r="894" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
     </row>
-    <row r="895" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
     </row>
-    <row r="896" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
     </row>
-    <row r="897" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
     </row>
-    <row r="898" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
     </row>
-    <row r="899" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
     </row>
-    <row r="900" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
     </row>
-    <row r="901" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
     </row>
-    <row r="902" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
     </row>
-    <row r="903" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
     </row>
-    <row r="904" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
     </row>
-    <row r="905" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
     </row>
-    <row r="906" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
     </row>
-    <row r="907" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
     </row>
-    <row r="908" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
     </row>
-    <row r="909" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
     </row>
-    <row r="910" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
     </row>
-    <row r="911" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
     </row>
-    <row r="912" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
     </row>
-    <row r="913" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
     </row>
-    <row r="914" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
     </row>
-    <row r="915" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
     </row>
-    <row r="916" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
     </row>
-    <row r="917" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
     </row>
-    <row r="918" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
     </row>
-    <row r="919" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
     </row>
-    <row r="920" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
     </row>
-    <row r="921" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
     </row>
-    <row r="922" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
     </row>
-    <row r="923" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
     </row>
-    <row r="924" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
     </row>
-    <row r="925" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
     </row>
-    <row r="926" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
     </row>
-    <row r="927" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
     </row>
-    <row r="928" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
     </row>
-    <row r="929" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
     </row>
-    <row r="930" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
     </row>
-    <row r="931" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
     </row>
-    <row r="932" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
     </row>
-    <row r="933" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
     </row>
-    <row r="934" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
     </row>
-    <row r="935" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
     </row>
-    <row r="936" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
     </row>
-    <row r="937" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
     </row>
-    <row r="938" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
     </row>
-    <row r="939" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
     </row>
-    <row r="940" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
     </row>
-    <row r="941" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
     </row>
-    <row r="942" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
     </row>
-    <row r="943" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
     </row>
-    <row r="944" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
     </row>
-    <row r="945" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
     </row>
-    <row r="946" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
     </row>
-    <row r="947" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
     </row>
-    <row r="948" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
     </row>
-    <row r="949" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
     </row>
-    <row r="950" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
     </row>
-    <row r="951" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
     </row>
-    <row r="952" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
     </row>
-    <row r="953" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
     </row>
-    <row r="954" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
     </row>
-    <row r="955" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
     </row>
-    <row r="956" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
     </row>
-    <row r="957" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
     </row>
-    <row r="958" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
     </row>
-    <row r="959" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
     </row>
-    <row r="960" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
     </row>
-    <row r="961" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
     </row>
-    <row r="962" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
     </row>
-    <row r="963" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
     </row>
-    <row r="964" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
     </row>
-    <row r="965" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
     </row>
-    <row r="966" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
     </row>
-    <row r="967" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
     </row>
-    <row r="968" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
     </row>
-    <row r="969" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
     </row>
-    <row r="970" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
     </row>
-    <row r="971" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
     </row>
-    <row r="972" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
     </row>
-    <row r="973" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
     </row>
-    <row r="974" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
     </row>
-    <row r="975" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
     </row>
-    <row r="976" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
     </row>
-    <row r="977" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
     </row>
-    <row r="978" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
     </row>
-    <row r="979" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
     </row>
-    <row r="980" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
     </row>
-    <row r="981" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
     </row>
-    <row r="982" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
     </row>
-    <row r="983" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
     </row>
-    <row r="984" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
     </row>
-    <row r="985" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
     </row>
-    <row r="986" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
     </row>
-    <row r="987" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
     </row>
-    <row r="988" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
     </row>
-    <row r="989" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
     </row>
-    <row r="990" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
     </row>
-    <row r="991" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
     </row>
-    <row r="992" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
     </row>
-    <row r="993" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="993" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
     </row>
-    <row r="994" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
     </row>
-    <row r="995" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="995" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
